--- a/biology/Botanique/Lodi_(cultivar_de_pommier)/Lodi_(cultivar_de_pommier).xlsx
+++ b/biology/Botanique/Lodi_(cultivar_de_pommier)/Lodi_(cultivar_de_pommier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lodi est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Geneva, New York
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages : purée et jus.
 Peau : couleur verte à jaune.
@@ -574,7 +590,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar obtenu par croisement naturel: Montgomery x Transparente Blanche
 </t>
@@ -605,7 +623,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété triploïde, une difficulté pour les petits jardins.
 Groupe de floraison : B
@@ -637,9 +657,11 @@
           <t>Résistances et susceptibilités</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tavelure : très susceptible[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tavelure : très susceptible
 Mildiou : très susceptible
 Rouille : très susceptible
 Feu bactérien : très susceptible
@@ -671,7 +693,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Zones de rusticité : 3 à 8
 Tendance à l'alternance
